--- a/Task_10/task_10-1.xlsx
+++ b/Task_10/task_10-1.xlsx
@@ -1,59 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\python_winter_work_2023\Task_10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135FD4E2-90C6-49A3-A8F9-6C096D9223CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="4" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="5" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Петров</t>
-  </si>
-  <si>
-    <t>Сидоров</t>
-  </si>
-  <si>
-    <t>Всичкин</t>
-  </si>
-  <si>
-    <t>Петечкин</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -352,82 +386,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A509495-F917-4224-A611-FA1A625F74E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
         <v>200</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="n">
         <v>150</v>
       </c>
-      <c r="D1">
+      <c r="D1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>300</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>200</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>500</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>350</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Всичкин</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>450</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>200</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Петечкин</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>350</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>150</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>250</v>
       </c>
     </row>
@@ -437,13 +485,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E22619-727E-4DFB-BBC5-238A4D0F5D20}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="A1:F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Всичкин</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Петечкин</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ИТОГО</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4350</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Task_10/task_10-1.xlsx
+++ b/Task_10/task_10-1.xlsx
@@ -391,10 +391,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -408,12 +408,6 @@
       <c r="B1" t="n">
         <v>200</v>
       </c>
-      <c r="C1" t="n">
-        <v>150</v>
-      </c>
-      <c r="D1" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -424,12 +418,6 @@
       <c r="B2" t="n">
         <v>300</v>
       </c>
-      <c r="C2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D2" t="n">
-        <v>250</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -440,43 +428,25 @@
       <c r="B3" t="n">
         <v>500</v>
       </c>
-      <c r="C3" t="n">
-        <v>350</v>
-      </c>
-      <c r="D3" t="n">
-        <v>400</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Всичкин</t>
+          <t>Петров</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>450</v>
-      </c>
-      <c r="C4" t="n">
-        <v>200</v>
-      </c>
-      <c r="D4" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Петечкин</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>350</v>
-      </c>
-      <c r="C5" t="n">
-        <v>150</v>
-      </c>
-      <c r="D5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -490,10 +460,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="A1:F12"/>
+      <selection activeCell="A1" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -505,7 +475,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2">
@@ -515,7 +485,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
@@ -525,37 +495,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Всичкин</t>
+          <t>ИТОГО</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Петечкин</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ИТОГО</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4350</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>

--- a/Task_10/task_10-1.xlsx
+++ b/Task_10/task_10-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -391,10 +391,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -447,6 +447,86 @@
       </c>
       <c r="B5" t="n">
         <v>300</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Котиков</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -460,9 +540,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
@@ -475,7 +555,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="2">
@@ -485,7 +565,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="3">
@@ -495,17 +575,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Котиков</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>ИТОГО</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1100</v>
+      <c r="B5" t="n">
+        <v>4700</v>
       </c>
     </row>
   </sheetData>

--- a/Task_10/task_10-1.xlsx
+++ b/Task_10/task_10-1.xlsx
@@ -1,34 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\python_winter_work_2023\Task_10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AF4F86-C31A-4BEE-A5AD-A93D95AF2F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Котиков</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +69,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -386,146 +349,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>200</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Петров</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>300</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Сидоров</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>600</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Петров</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>300</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <v>300</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Сидоров</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>100</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Петров</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>400</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Котиков</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>1000</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Петров</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>300</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>300</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Сидоров</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>100</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Петров</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>400</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
         <v>400</v>
       </c>
     </row>
@@ -535,70 +468,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Петров</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Сидоров</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Котиков</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ИТОГО</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4700</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Task_10/task_10-1.xlsx
+++ b/Task_10/task_10-1.xlsx
@@ -1,56 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\python_winter_work_2023\Task_10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AF4F86-C31A-4BEE-A5AD-A93D95AF2F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Петров</t>
-  </si>
-  <si>
-    <t>Сидоров</t>
-  </si>
-  <si>
-    <t>Котиков</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -349,116 +386,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Котиков</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>400</v>
       </c>
     </row>
@@ -468,15 +535,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="A1" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Котиков</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ИТОГО</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4700</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Task_10/task_10-1.xlsx
+++ b/Task_10/task_10-1.xlsx
@@ -542,11 +542,11 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -599,6 +599,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Task_10/task_10-1.xlsx
+++ b/Task_10/task_10-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -393,7 +393,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
